--- a/tasks/19/2 кучи/20907.xlsx
+++ b/tasks/19/2 кучи/20907.xlsx
@@ -1,45 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="19-20" sheetId="1" r:id="rId1"/>
-    <sheet name="21" sheetId="2" r:id="rId2"/>
+    <sheet name="19-20" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="21" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -49,108 +70,152 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.3999"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -174,174 +239,161 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF9DC3E6"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -349,33 +401,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -388,13 +431,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -404,15 +441,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -420,7 +455,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -428,124 +462,120 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="51" width="5.85546875" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="2" style="2" width="5.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="52" style="2" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W2" s="5"/>
@@ -566,8 +596,8 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="W3" s="5"/>
@@ -588,8 +618,8 @@
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="W4" s="5"/>
@@ -610,8 +640,8 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="W5" s="5"/>
@@ -632,8 +662,8 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="W6" s="5"/>
@@ -654,8 +684,8 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="W7" s="5"/>
@@ -676,8 +706,8 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
@@ -698,8 +728,8 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="5"/>
@@ -737,8 +767,8 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="5"/>
@@ -776,8 +806,8 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
@@ -815,8 +845,8 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="5"/>
@@ -854,8 +884,8 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="5"/>
@@ -893,8 +923,8 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="5"/>
@@ -932,8 +962,8 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="5"/>
@@ -971,8 +1001,8 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
@@ -1010,8 +1040,8 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="5"/>
@@ -1049,8 +1079,8 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1089,8 +1119,8 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
@@ -1129,8 +1159,8 @@
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1169,8 +1199,8 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
@@ -1209,8 +1239,8 @@
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
@@ -1241,8 +1271,8 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="W23" s="5"/>
@@ -1263,8 +1293,8 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="W24" s="5"/>
@@ -1285,8 +1315,8 @@
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="W25" s="5"/>
@@ -1307,8 +1337,8 @@
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="W26" s="5"/>
@@ -1329,8 +1359,8 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="W27" s="5"/>
@@ -1351,13 +1381,13 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="1">
-        <f t="shared" ref="N18:AC44" si="0">$A28*2+V$1</f>
+      <c r="U28" s="7"/>
+      <c r="V28" s="2" t="n">
+        <f aca="false">$A28*2+V$1</f>
         <v>81</v>
       </c>
       <c r="W28" s="5"/>
@@ -1378,21 +1408,21 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="1">
-        <f t="shared" si="0"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="2" t="n">
+        <f aca="false">$A29*2+T$1</f>
         <v>81</v>
       </c>
-      <c r="U29" s="1">
-        <f t="shared" si="0"/>
+      <c r="U29" s="2" t="n">
+        <f aca="false">$A29*2+U$1</f>
         <v>82</v>
       </c>
-      <c r="V29" s="1">
-        <f t="shared" si="0"/>
+      <c r="V29" s="2" t="n">
+        <f aca="false">$A29*2+V$1</f>
         <v>83</v>
       </c>
       <c r="W29" s="5"/>
@@ -1413,29 +1443,29 @@
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="2" t="n">
+        <f aca="false">$A30*2+R$1</f>
         <v>81</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" si="0"/>
+      <c r="S30" s="2" t="n">
+        <f aca="false">$A30*2+S$1</f>
         <v>82</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" si="0"/>
+      <c r="T30" s="2" t="n">
+        <f aca="false">$A30*2+T$1</f>
         <v>83</v>
       </c>
-      <c r="U30" s="1">
-        <f t="shared" si="0"/>
+      <c r="U30" s="2" t="n">
+        <f aca="false">$A30*2+U$1</f>
         <v>84</v>
       </c>
-      <c r="V30" s="1">
-        <f t="shared" si="0"/>
+      <c r="V30" s="2" t="n">
+        <f aca="false">$A30*2+V$1</f>
         <v>85</v>
       </c>
       <c r="W30" s="5"/>
@@ -1456,37 +1486,37 @@
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="1">
-        <f t="shared" si="0"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="2" t="n">
+        <f aca="false">$A31*2+P$1</f>
         <v>81</v>
       </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q31" s="2" t="n">
+        <f aca="false">$A31*2+Q$1</f>
         <v>82</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="0"/>
+      <c r="R31" s="2" t="n">
+        <f aca="false">$A31*2+R$1</f>
         <v>83</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" si="0"/>
+      <c r="S31" s="2" t="n">
+        <f aca="false">$A31*2+S$1</f>
         <v>84</v>
       </c>
-      <c r="T31" s="1">
-        <f t="shared" si="0"/>
+      <c r="T31" s="2" t="n">
+        <f aca="false">$A31*2+T$1</f>
         <v>85</v>
       </c>
-      <c r="U31" s="1">
-        <f t="shared" si="0"/>
+      <c r="U31" s="2" t="n">
+        <f aca="false">$A31*2+U$1</f>
         <v>86</v>
       </c>
-      <c r="V31" s="1">
-        <f t="shared" si="0"/>
+      <c r="V31" s="2" t="n">
+        <f aca="false">$A31*2+V$1</f>
         <v>87</v>
       </c>
       <c r="W31" s="5"/>
@@ -1507,45 +1537,45 @@
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="1">
-        <f t="shared" si="0"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="2" t="n">
+        <f aca="false">$A32*2+N$1</f>
         <v>81</v>
       </c>
-      <c r="O32" s="1">
-        <f t="shared" si="0"/>
+      <c r="O32" s="2" t="n">
+        <f aca="false">$A32*2+O$1</f>
         <v>82</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="0"/>
+      <c r="P32" s="2" t="n">
+        <f aca="false">$A32*2+P$1</f>
         <v>83</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q32" s="2" t="n">
+        <f aca="false">$A32*2+Q$1</f>
         <v>84</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="0"/>
+      <c r="R32" s="2" t="n">
+        <f aca="false">$A32*2+R$1</f>
         <v>85</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" si="0"/>
+      <c r="S32" s="2" t="n">
+        <f aca="false">$A32*2+S$1</f>
         <v>86</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" si="0"/>
+      <c r="T32" s="2" t="n">
+        <f aca="false">$A32*2+T$1</f>
         <v>87</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" si="0"/>
+      <c r="U32" s="2" t="n">
+        <f aca="false">$A32*2+U$1</f>
         <v>88</v>
       </c>
-      <c r="V32" s="1">
-        <f t="shared" si="0"/>
+      <c r="V32" s="2" t="n">
+        <f aca="false">$A32*2+V$1</f>
         <v>89</v>
       </c>
       <c r="W32" s="5"/>
@@ -1566,53 +1596,53 @@
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="1">
-        <f t="shared" ref="B18:Q44" si="1">$A33*2+L$1</f>
+      <c r="K33" s="7"/>
+      <c r="L33" s="2" t="n">
+        <f aca="false">$A33*2+L$1</f>
         <v>81</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="1"/>
+      <c r="M33" s="2" t="n">
+        <f aca="false">$A33*2+M$1</f>
         <v>82</v>
       </c>
-      <c r="N33" s="1">
-        <f t="shared" si="0"/>
+      <c r="N33" s="2" t="n">
+        <f aca="false">$A33*2+N$1</f>
         <v>83</v>
       </c>
-      <c r="O33" s="1">
-        <f t="shared" si="0"/>
+      <c r="O33" s="2" t="n">
+        <f aca="false">$A33*2+O$1</f>
         <v>84</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="0"/>
+      <c r="P33" s="2" t="n">
+        <f aca="false">$A33*2+P$1</f>
         <v>85</v>
       </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q33" s="2" t="n">
+        <f aca="false">$A33*2+Q$1</f>
         <v>86</v>
       </c>
-      <c r="R33" s="1">
-        <f t="shared" si="0"/>
+      <c r="R33" s="2" t="n">
+        <f aca="false">$A33*2+R$1</f>
         <v>87</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" si="0"/>
+      <c r="S33" s="2" t="n">
+        <f aca="false">$A33*2+S$1</f>
         <v>88</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" si="0"/>
+      <c r="T33" s="2" t="n">
+        <f aca="false">$A33*2+T$1</f>
         <v>89</v>
       </c>
-      <c r="U33" s="1">
-        <f t="shared" si="0"/>
+      <c r="U33" s="2" t="n">
+        <f aca="false">$A33*2+U$1</f>
         <v>90</v>
       </c>
-      <c r="V33" s="1">
-        <f t="shared" si="0"/>
+      <c r="V33" s="2" t="n">
+        <f aca="false">$A33*2+V$1</f>
         <v>91</v>
       </c>
       <c r="W33" s="5"/>
@@ -1633,61 +1663,61 @@
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="1">
-        <f t="shared" si="1"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="2" t="n">
+        <f aca="false">$A34*2+J$1</f>
         <v>81</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
+      <c r="K34" s="2" t="n">
+        <f aca="false">$A34*2+K$1</f>
         <v>82</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="1"/>
+      <c r="L34" s="2" t="n">
+        <f aca="false">$A34*2+L$1</f>
         <v>83</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="1"/>
+      <c r="M34" s="2" t="n">
+        <f aca="false">$A34*2+M$1</f>
         <v>84</v>
       </c>
-      <c r="N34" s="1">
-        <f t="shared" si="0"/>
+      <c r="N34" s="2" t="n">
+        <f aca="false">$A34*2+N$1</f>
         <v>85</v>
       </c>
-      <c r="O34" s="1">
-        <f t="shared" si="0"/>
+      <c r="O34" s="2" t="n">
+        <f aca="false">$A34*2+O$1</f>
         <v>86</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="0"/>
+      <c r="P34" s="2" t="n">
+        <f aca="false">$A34*2+P$1</f>
         <v>87</v>
       </c>
-      <c r="Q34" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q34" s="2" t="n">
+        <f aca="false">$A34*2+Q$1</f>
         <v>88</v>
       </c>
-      <c r="R34" s="1">
-        <f t="shared" si="0"/>
+      <c r="R34" s="2" t="n">
+        <f aca="false">$A34*2+R$1</f>
         <v>89</v>
       </c>
-      <c r="S34" s="1">
-        <f t="shared" si="0"/>
+      <c r="S34" s="2" t="n">
+        <f aca="false">$A34*2+S$1</f>
         <v>90</v>
       </c>
-      <c r="T34" s="1">
-        <f t="shared" si="0"/>
+      <c r="T34" s="2" t="n">
+        <f aca="false">$A34*2+T$1</f>
         <v>91</v>
       </c>
-      <c r="U34" s="1">
-        <f t="shared" si="0"/>
+      <c r="U34" s="2" t="n">
+        <f aca="false">$A34*2+U$1</f>
         <v>92</v>
       </c>
-      <c r="V34" s="1">
-        <f t="shared" si="0"/>
+      <c r="V34" s="2" t="n">
+        <f aca="false">$A34*2+V$1</f>
         <v>93</v>
       </c>
       <c r="W34" s="5"/>
@@ -1708,69 +1738,69 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="2" t="n">
+        <f aca="false">$A35*2+H$1</f>
         <v>81</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="1"/>
+      <c r="I35" s="2" t="n">
+        <f aca="false">$A35*2+I$1</f>
         <v>82</v>
       </c>
-      <c r="J35" s="1">
-        <f t="shared" si="1"/>
+      <c r="J35" s="2" t="n">
+        <f aca="false">$A35*2+J$1</f>
         <v>83</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
+      <c r="K35" s="2" t="n">
+        <f aca="false">$A35*2+K$1</f>
         <v>84</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="1"/>
+      <c r="L35" s="2" t="n">
+        <f aca="false">$A35*2+L$1</f>
         <v>85</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="1"/>
+      <c r="M35" s="2" t="n">
+        <f aca="false">$A35*2+M$1</f>
         <v>86</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" si="0"/>
+      <c r="N35" s="2" t="n">
+        <f aca="false">$A35*2+N$1</f>
         <v>87</v>
       </c>
-      <c r="O35" s="1">
-        <f t="shared" si="0"/>
+      <c r="O35" s="2" t="n">
+        <f aca="false">$A35*2+O$1</f>
         <v>88</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="0"/>
+      <c r="P35" s="2" t="n">
+        <f aca="false">$A35*2+P$1</f>
         <v>89</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q35" s="2" t="n">
+        <f aca="false">$A35*2+Q$1</f>
         <v>90</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" si="0"/>
+      <c r="R35" s="2" t="n">
+        <f aca="false">$A35*2+R$1</f>
         <v>91</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" si="0"/>
+      <c r="S35" s="2" t="n">
+        <f aca="false">$A35*2+S$1</f>
         <v>92</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" si="0"/>
+      <c r="T35" s="2" t="n">
+        <f aca="false">$A35*2+T$1</f>
         <v>93</v>
       </c>
-      <c r="U35" s="1">
-        <f t="shared" si="0"/>
+      <c r="U35" s="2" t="n">
+        <f aca="false">$A35*2+U$1</f>
         <v>94</v>
       </c>
-      <c r="V35" s="1">
-        <f t="shared" si="0"/>
+      <c r="V35" s="2" t="n">
+        <f aca="false">$A35*2+V$1</f>
         <v>95</v>
       </c>
       <c r="W35" s="5"/>
@@ -1791,77 +1821,77 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2" t="n">
+        <f aca="false">$A36*2+F$1</f>
         <v>81</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
+      <c r="G36" s="2" t="n">
+        <f aca="false">$A36*2+G$1</f>
         <v>82</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
+      <c r="H36" s="2" t="n">
+        <f aca="false">$A36*2+H$1</f>
         <v>83</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="1"/>
+      <c r="I36" s="2" t="n">
+        <f aca="false">$A36*2+I$1</f>
         <v>84</v>
       </c>
-      <c r="J36" s="1">
-        <f t="shared" si="1"/>
+      <c r="J36" s="2" t="n">
+        <f aca="false">$A36*2+J$1</f>
         <v>85</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
+      <c r="K36" s="2" t="n">
+        <f aca="false">$A36*2+K$1</f>
         <v>86</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="1"/>
+      <c r="L36" s="2" t="n">
+        <f aca="false">$A36*2+L$1</f>
         <v>87</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="1"/>
+      <c r="M36" s="2" t="n">
+        <f aca="false">$A36*2+M$1</f>
         <v>88</v>
       </c>
-      <c r="N36" s="1">
-        <f t="shared" si="0"/>
+      <c r="N36" s="2" t="n">
+        <f aca="false">$A36*2+N$1</f>
         <v>89</v>
       </c>
-      <c r="O36" s="1">
-        <f t="shared" si="0"/>
+      <c r="O36" s="2" t="n">
+        <f aca="false">$A36*2+O$1</f>
         <v>90</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="0"/>
+      <c r="P36" s="2" t="n">
+        <f aca="false">$A36*2+P$1</f>
         <v>91</v>
       </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q36" s="2" t="n">
+        <f aca="false">$A36*2+Q$1</f>
         <v>92</v>
       </c>
-      <c r="R36" s="1">
-        <f t="shared" si="0"/>
+      <c r="R36" s="2" t="n">
+        <f aca="false">$A36*2+R$1</f>
         <v>93</v>
       </c>
-      <c r="S36" s="1">
-        <f t="shared" si="0"/>
+      <c r="S36" s="2" t="n">
+        <f aca="false">$A36*2+S$1</f>
         <v>94</v>
       </c>
-      <c r="T36" s="1">
-        <f t="shared" si="0"/>
+      <c r="T36" s="2" t="n">
+        <f aca="false">$A36*2+T$1</f>
         <v>95</v>
       </c>
-      <c r="U36" s="1">
-        <f t="shared" si="0"/>
+      <c r="U36" s="2" t="n">
+        <f aca="false">$A36*2+U$1</f>
         <v>96</v>
       </c>
-      <c r="V36" s="1">
-        <f t="shared" si="0"/>
+      <c r="V36" s="2" t="n">
+        <f aca="false">$A36*2+V$1</f>
         <v>97</v>
       </c>
       <c r="W36" s="5"/>
@@ -1882,85 +1912,85 @@
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1">
-        <f t="shared" si="1"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2" t="n">
+        <f aca="false">$A37*2+D$1</f>
         <v>81</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" si="1"/>
+      <c r="E37" s="2" t="n">
+        <f aca="false">$A37*2+E$1</f>
         <v>82</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="1"/>
+      <c r="F37" s="2" t="n">
+        <f aca="false">$A37*2+F$1</f>
         <v>83</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
+      <c r="G37" s="2" t="n">
+        <f aca="false">$A37*2+G$1</f>
         <v>84</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
+      <c r="H37" s="2" t="n">
+        <f aca="false">$A37*2+H$1</f>
         <v>85</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="1"/>
+      <c r="I37" s="2" t="n">
+        <f aca="false">$A37*2+I$1</f>
         <v>86</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="1"/>
+      <c r="J37" s="2" t="n">
+        <f aca="false">$A37*2+J$1</f>
         <v>87</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
+      <c r="K37" s="2" t="n">
+        <f aca="false">$A37*2+K$1</f>
         <v>88</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="1"/>
+      <c r="L37" s="2" t="n">
+        <f aca="false">$A37*2+L$1</f>
         <v>89</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="1"/>
+      <c r="M37" s="2" t="n">
+        <f aca="false">$A37*2+M$1</f>
         <v>90</v>
       </c>
-      <c r="N37" s="1">
-        <f t="shared" si="0"/>
+      <c r="N37" s="2" t="n">
+        <f aca="false">$A37*2+N$1</f>
         <v>91</v>
       </c>
-      <c r="O37" s="1">
-        <f t="shared" si="0"/>
+      <c r="O37" s="2" t="n">
+        <f aca="false">$A37*2+O$1</f>
         <v>92</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="0"/>
+      <c r="P37" s="2" t="n">
+        <f aca="false">$A37*2+P$1</f>
         <v>93</v>
       </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q37" s="2" t="n">
+        <f aca="false">$A37*2+Q$1</f>
         <v>94</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" si="0"/>
+      <c r="R37" s="2" t="n">
+        <f aca="false">$A37*2+R$1</f>
         <v>95</v>
       </c>
-      <c r="S37" s="1">
-        <f t="shared" si="0"/>
+      <c r="S37" s="2" t="n">
+        <f aca="false">$A37*2+S$1</f>
         <v>96</v>
       </c>
-      <c r="T37" s="1">
-        <f t="shared" si="0"/>
+      <c r="T37" s="2" t="n">
+        <f aca="false">$A37*2+T$1</f>
         <v>97</v>
       </c>
-      <c r="U37" s="1">
-        <f t="shared" si="0"/>
+      <c r="U37" s="2" t="n">
+        <f aca="false">$A37*2+U$1</f>
         <v>98</v>
       </c>
-      <c r="V37" s="1">
-        <f t="shared" si="0"/>
+      <c r="V37" s="2" t="n">
+        <f aca="false">$A37*2+V$1</f>
         <v>99</v>
       </c>
       <c r="W37" s="5"/>
@@ -1981,92 +2011,92 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" si="1"/>
+      <c r="B38" s="2" t="n">
+        <f aca="false">$A38*2+B$1</f>
         <v>81</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
+      <c r="C38" s="2" t="n">
+        <f aca="false">$A38*2+C$1</f>
         <v>82</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
+      <c r="D38" s="2" t="n">
+        <f aca="false">$A38*2+D$1</f>
         <v>83</v>
       </c>
-      <c r="E38" s="1">
-        <f t="shared" si="1"/>
+      <c r="E38" s="2" t="n">
+        <f aca="false">$A38*2+E$1</f>
         <v>84</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
+      <c r="F38" s="2" t="n">
+        <f aca="false">$A38*2+F$1</f>
         <v>85</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
+      <c r="G38" s="2" t="n">
+        <f aca="false">$A38*2+G$1</f>
         <v>86</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
+      <c r="H38" s="2" t="n">
+        <f aca="false">$A38*2+H$1</f>
         <v>87</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="1"/>
+      <c r="I38" s="2" t="n">
+        <f aca="false">$A38*2+I$1</f>
         <v>88</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="1"/>
+      <c r="J38" s="2" t="n">
+        <f aca="false">$A38*2+J$1</f>
         <v>89</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
+      <c r="K38" s="2" t="n">
+        <f aca="false">$A38*2+K$1</f>
         <v>90</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="1"/>
+      <c r="L38" s="2" t="n">
+        <f aca="false">$A38*2+L$1</f>
         <v>91</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" ref="M38:M44" si="2">$A38*2+M$1</f>
+      <c r="M38" s="2" t="n">
+        <f aca="false">$A38*2+M$1</f>
         <v>92</v>
       </c>
-      <c r="N38" s="1">
-        <f t="shared" si="0"/>
+      <c r="N38" s="2" t="n">
+        <f aca="false">$A38*2+N$1</f>
         <v>93</v>
       </c>
-      <c r="O38" s="1">
-        <f t="shared" si="0"/>
+      <c r="O38" s="2" t="n">
+        <f aca="false">$A38*2+O$1</f>
         <v>94</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
+      <c r="P38" s="2" t="n">
+        <f aca="false">$A38*2+P$1</f>
         <v>95</v>
       </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q38" s="2" t="n">
+        <f aca="false">$A38*2+Q$1</f>
         <v>96</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" si="0"/>
+      <c r="R38" s="2" t="n">
+        <f aca="false">$A38*2+R$1</f>
         <v>97</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" si="0"/>
+      <c r="S38" s="2" t="n">
+        <f aca="false">$A38*2+S$1</f>
         <v>98</v>
       </c>
-      <c r="T38" s="1">
-        <f t="shared" si="0"/>
+      <c r="T38" s="2" t="n">
+        <f aca="false">$A38*2+T$1</f>
         <v>99</v>
       </c>
-      <c r="U38" s="1">
-        <f t="shared" si="0"/>
+      <c r="U38" s="2" t="n">
+        <f aca="false">$A38*2+U$1</f>
         <v>100</v>
       </c>
-      <c r="V38" s="1">
-        <f t="shared" si="0"/>
+      <c r="V38" s="2" t="n">
+        <f aca="false">$A38*2+V$1</f>
         <v>101</v>
       </c>
       <c r="W38" s="5"/>
@@ -2087,92 +2117,92 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" ref="B39:L44" si="3">$A39*2+B$1</f>
+      <c r="B39" s="2" t="n">
+        <f aca="false">$A39*2+B$1</f>
         <v>83</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="3"/>
+      <c r="C39" s="2" t="n">
+        <f aca="false">$A39*2+C$1</f>
         <v>84</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="3"/>
+      <c r="D39" s="2" t="n">
+        <f aca="false">$A39*2+D$1</f>
         <v>85</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="3"/>
+      <c r="E39" s="2" t="n">
+        <f aca="false">$A39*2+E$1</f>
         <v>86</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="3"/>
+      <c r="F39" s="2" t="n">
+        <f aca="false">$A39*2+F$1</f>
         <v>87</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="3"/>
+      <c r="G39" s="2" t="n">
+        <f aca="false">$A39*2+G$1</f>
         <v>88</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="3"/>
+      <c r="H39" s="2" t="n">
+        <f aca="false">$A39*2+H$1</f>
         <v>89</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="3"/>
+      <c r="I39" s="2" t="n">
+        <f aca="false">$A39*2+I$1</f>
         <v>90</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="3"/>
+      <c r="J39" s="2" t="n">
+        <f aca="false">$A39*2+J$1</f>
         <v>91</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="3"/>
+      <c r="K39" s="2" t="n">
+        <f aca="false">$A39*2+K$1</f>
         <v>92</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="3"/>
+      <c r="L39" s="2" t="n">
+        <f aca="false">$A39*2+L$1</f>
         <v>93</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="2"/>
+      <c r="M39" s="2" t="n">
+        <f aca="false">$A39*2+M$1</f>
         <v>94</v>
       </c>
-      <c r="N39" s="1">
-        <f t="shared" si="0"/>
+      <c r="N39" s="2" t="n">
+        <f aca="false">$A39*2+N$1</f>
         <v>95</v>
       </c>
-      <c r="O39" s="1">
-        <f t="shared" si="0"/>
+      <c r="O39" s="2" t="n">
+        <f aca="false">$A39*2+O$1</f>
         <v>96</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="0"/>
+      <c r="P39" s="2" t="n">
+        <f aca="false">$A39*2+P$1</f>
         <v>97</v>
       </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q39" s="2" t="n">
+        <f aca="false">$A39*2+Q$1</f>
         <v>98</v>
       </c>
-      <c r="R39" s="1">
-        <f t="shared" si="0"/>
+      <c r="R39" s="2" t="n">
+        <f aca="false">$A39*2+R$1</f>
         <v>99</v>
       </c>
-      <c r="S39" s="1">
-        <f t="shared" si="0"/>
+      <c r="S39" s="2" t="n">
+        <f aca="false">$A39*2+S$1</f>
         <v>100</v>
       </c>
-      <c r="T39" s="1">
-        <f t="shared" si="0"/>
+      <c r="T39" s="2" t="n">
+        <f aca="false">$A39*2+T$1</f>
         <v>101</v>
       </c>
-      <c r="U39" s="1">
-        <f t="shared" si="0"/>
+      <c r="U39" s="2" t="n">
+        <f aca="false">$A39*2+U$1</f>
         <v>102</v>
       </c>
-      <c r="V39" s="1">
-        <f t="shared" si="0"/>
+      <c r="V39" s="2" t="n">
+        <f aca="false">$A39*2+V$1</f>
         <v>103</v>
       </c>
       <c r="W39" s="5"/>
@@ -2193,92 +2223,92 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" si="3"/>
+      <c r="B40" s="2" t="n">
+        <f aca="false">$A40*2+B$1</f>
         <v>85</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="3"/>
+      <c r="C40" s="2" t="n">
+        <f aca="false">$A40*2+C$1</f>
         <v>86</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="3"/>
+      <c r="D40" s="2" t="n">
+        <f aca="false">$A40*2+D$1</f>
         <v>87</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" si="3"/>
+      <c r="E40" s="2" t="n">
+        <f aca="false">$A40*2+E$1</f>
         <v>88</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="3"/>
+      <c r="F40" s="2" t="n">
+        <f aca="false">$A40*2+F$1</f>
         <v>89</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="3"/>
+      <c r="G40" s="2" t="n">
+        <f aca="false">$A40*2+G$1</f>
         <v>90</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="3"/>
+      <c r="H40" s="2" t="n">
+        <f aca="false">$A40*2+H$1</f>
         <v>91</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="3"/>
+      <c r="I40" s="2" t="n">
+        <f aca="false">$A40*2+I$1</f>
         <v>92</v>
       </c>
-      <c r="J40" s="1">
-        <f t="shared" si="3"/>
+      <c r="J40" s="2" t="n">
+        <f aca="false">$A40*2+J$1</f>
         <v>93</v>
       </c>
-      <c r="K40" s="1">
-        <f t="shared" si="3"/>
+      <c r="K40" s="2" t="n">
+        <f aca="false">$A40*2+K$1</f>
         <v>94</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="3"/>
+      <c r="L40" s="2" t="n">
+        <f aca="false">$A40*2+L$1</f>
         <v>95</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="2"/>
+      <c r="M40" s="2" t="n">
+        <f aca="false">$A40*2+M$1</f>
         <v>96</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" si="0"/>
+      <c r="N40" s="2" t="n">
+        <f aca="false">$A40*2+N$1</f>
         <v>97</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" si="0"/>
+      <c r="O40" s="2" t="n">
+        <f aca="false">$A40*2+O$1</f>
         <v>98</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="0"/>
+      <c r="P40" s="2" t="n">
+        <f aca="false">$A40*2+P$1</f>
         <v>99</v>
       </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q40" s="2" t="n">
+        <f aca="false">$A40*2+Q$1</f>
         <v>100</v>
       </c>
-      <c r="R40" s="1">
-        <f t="shared" si="0"/>
+      <c r="R40" s="2" t="n">
+        <f aca="false">$A40*2+R$1</f>
         <v>101</v>
       </c>
-      <c r="S40" s="1">
-        <f t="shared" si="0"/>
+      <c r="S40" s="2" t="n">
+        <f aca="false">$A40*2+S$1</f>
         <v>102</v>
       </c>
-      <c r="T40" s="1">
-        <f t="shared" si="0"/>
+      <c r="T40" s="2" t="n">
+        <f aca="false">$A40*2+T$1</f>
         <v>103</v>
       </c>
-      <c r="U40" s="1">
-        <f t="shared" si="0"/>
+      <c r="U40" s="2" t="n">
+        <f aca="false">$A40*2+U$1</f>
         <v>104</v>
       </c>
-      <c r="V40" s="1">
-        <f t="shared" si="0"/>
+      <c r="V40" s="2" t="n">
+        <f aca="false">$A40*2+V$1</f>
         <v>105</v>
       </c>
       <c r="W40" s="5"/>
@@ -2299,92 +2329,92 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" si="3"/>
+      <c r="B41" s="2" t="n">
+        <f aca="false">$A41*2+B$1</f>
         <v>87</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="3"/>
+      <c r="C41" s="2" t="n">
+        <f aca="false">$A41*2+C$1</f>
         <v>88</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="3"/>
+      <c r="D41" s="2" t="n">
+        <f aca="false">$A41*2+D$1</f>
         <v>89</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" si="3"/>
+      <c r="E41" s="2" t="n">
+        <f aca="false">$A41*2+E$1</f>
         <v>90</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="3"/>
+      <c r="F41" s="2" t="n">
+        <f aca="false">$A41*2+F$1</f>
         <v>91</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="3"/>
+      <c r="G41" s="2" t="n">
+        <f aca="false">$A41*2+G$1</f>
         <v>92</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="3"/>
+      <c r="H41" s="2" t="n">
+        <f aca="false">$A41*2+H$1</f>
         <v>93</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="3"/>
+      <c r="I41" s="2" t="n">
+        <f aca="false">$A41*2+I$1</f>
         <v>94</v>
       </c>
-      <c r="J41" s="1">
-        <f t="shared" si="3"/>
+      <c r="J41" s="2" t="n">
+        <f aca="false">$A41*2+J$1</f>
         <v>95</v>
       </c>
-      <c r="K41" s="1">
-        <f t="shared" si="3"/>
+      <c r="K41" s="2" t="n">
+        <f aca="false">$A41*2+K$1</f>
         <v>96</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="3"/>
+      <c r="L41" s="2" t="n">
+        <f aca="false">$A41*2+L$1</f>
         <v>97</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="2"/>
+      <c r="M41" s="2" t="n">
+        <f aca="false">$A41*2+M$1</f>
         <v>98</v>
       </c>
-      <c r="N41" s="1">
-        <f t="shared" si="0"/>
+      <c r="N41" s="2" t="n">
+        <f aca="false">$A41*2+N$1</f>
         <v>99</v>
       </c>
-      <c r="O41" s="1">
-        <f t="shared" si="0"/>
+      <c r="O41" s="2" t="n">
+        <f aca="false">$A41*2+O$1</f>
         <v>100</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="0"/>
+      <c r="P41" s="2" t="n">
+        <f aca="false">$A41*2+P$1</f>
         <v>101</v>
       </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q41" s="2" t="n">
+        <f aca="false">$A41*2+Q$1</f>
         <v>102</v>
       </c>
-      <c r="R41" s="1">
-        <f t="shared" si="0"/>
+      <c r="R41" s="2" t="n">
+        <f aca="false">$A41*2+R$1</f>
         <v>103</v>
       </c>
-      <c r="S41" s="1">
-        <f t="shared" si="0"/>
+      <c r="S41" s="2" t="n">
+        <f aca="false">$A41*2+S$1</f>
         <v>104</v>
       </c>
-      <c r="T41" s="1">
-        <f t="shared" si="0"/>
+      <c r="T41" s="2" t="n">
+        <f aca="false">$A41*2+T$1</f>
         <v>105</v>
       </c>
-      <c r="U41" s="1">
-        <f t="shared" si="0"/>
+      <c r="U41" s="2" t="n">
+        <f aca="false">$A41*2+U$1</f>
         <v>106</v>
       </c>
-      <c r="V41" s="1">
-        <f t="shared" si="0"/>
+      <c r="V41" s="2" t="n">
+        <f aca="false">$A41*2+V$1</f>
         <v>107</v>
       </c>
       <c r="W41" s="5"/>
@@ -2405,92 +2435,92 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="3"/>
+      <c r="B42" s="2" t="n">
+        <f aca="false">$A42*2+B$1</f>
         <v>89</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="3"/>
+      <c r="C42" s="2" t="n">
+        <f aca="false">$A42*2+C$1</f>
         <v>90</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="3"/>
+      <c r="D42" s="2" t="n">
+        <f aca="false">$A42*2+D$1</f>
         <v>91</v>
       </c>
-      <c r="E42" s="1">
-        <f t="shared" si="3"/>
+      <c r="E42" s="2" t="n">
+        <f aca="false">$A42*2+E$1</f>
         <v>92</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="3"/>
+      <c r="F42" s="2" t="n">
+        <f aca="false">$A42*2+F$1</f>
         <v>93</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="3"/>
+      <c r="G42" s="2" t="n">
+        <f aca="false">$A42*2+G$1</f>
         <v>94</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="3"/>
+      <c r="H42" s="2" t="n">
+        <f aca="false">$A42*2+H$1</f>
         <v>95</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="3"/>
+      <c r="I42" s="2" t="n">
+        <f aca="false">$A42*2+I$1</f>
         <v>96</v>
       </c>
-      <c r="J42" s="1">
-        <f t="shared" si="3"/>
+      <c r="J42" s="2" t="n">
+        <f aca="false">$A42*2+J$1</f>
         <v>97</v>
       </c>
-      <c r="K42" s="1">
-        <f t="shared" si="3"/>
+      <c r="K42" s="2" t="n">
+        <f aca="false">$A42*2+K$1</f>
         <v>98</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="3"/>
+      <c r="L42" s="2" t="n">
+        <f aca="false">$A42*2+L$1</f>
         <v>99</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="2"/>
+      <c r="M42" s="2" t="n">
+        <f aca="false">$A42*2+M$1</f>
         <v>100</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" si="0"/>
+      <c r="N42" s="2" t="n">
+        <f aca="false">$A42*2+N$1</f>
         <v>101</v>
       </c>
-      <c r="O42" s="1">
-        <f t="shared" si="0"/>
+      <c r="O42" s="2" t="n">
+        <f aca="false">$A42*2+O$1</f>
         <v>102</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="0"/>
+      <c r="P42" s="2" t="n">
+        <f aca="false">$A42*2+P$1</f>
         <v>103</v>
       </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q42" s="2" t="n">
+        <f aca="false">$A42*2+Q$1</f>
         <v>104</v>
       </c>
-      <c r="R42" s="1">
-        <f t="shared" si="0"/>
+      <c r="R42" s="2" t="n">
+        <f aca="false">$A42*2+R$1</f>
         <v>105</v>
       </c>
-      <c r="S42" s="1">
-        <f t="shared" si="0"/>
+      <c r="S42" s="2" t="n">
+        <f aca="false">$A42*2+S$1</f>
         <v>106</v>
       </c>
-      <c r="T42" s="1">
-        <f t="shared" si="0"/>
+      <c r="T42" s="2" t="n">
+        <f aca="false">$A42*2+T$1</f>
         <v>107</v>
       </c>
-      <c r="U42" s="1">
-        <f t="shared" si="0"/>
+      <c r="U42" s="2" t="n">
+        <f aca="false">$A42*2+U$1</f>
         <v>108</v>
       </c>
-      <c r="V42" s="1">
-        <f t="shared" si="0"/>
+      <c r="V42" s="2" t="n">
+        <f aca="false">$A42*2+V$1</f>
         <v>109</v>
       </c>
       <c r="W42" s="5"/>
@@ -2511,92 +2541,92 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <f t="shared" si="3"/>
+      <c r="B43" s="2" t="n">
+        <f aca="false">$A43*2+B$1</f>
         <v>91</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="3"/>
+      <c r="C43" s="2" t="n">
+        <f aca="false">$A43*2+C$1</f>
         <v>92</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="3"/>
+      <c r="D43" s="2" t="n">
+        <f aca="false">$A43*2+D$1</f>
         <v>93</v>
       </c>
-      <c r="E43" s="1">
-        <f t="shared" si="3"/>
+      <c r="E43" s="2" t="n">
+        <f aca="false">$A43*2+E$1</f>
         <v>94</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="3"/>
+      <c r="F43" s="2" t="n">
+        <f aca="false">$A43*2+F$1</f>
         <v>95</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="3"/>
+      <c r="G43" s="2" t="n">
+        <f aca="false">$A43*2+G$1</f>
         <v>96</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="3"/>
+      <c r="H43" s="2" t="n">
+        <f aca="false">$A43*2+H$1</f>
         <v>97</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="3"/>
+      <c r="I43" s="2" t="n">
+        <f aca="false">$A43*2+I$1</f>
         <v>98</v>
       </c>
-      <c r="J43" s="1">
-        <f t="shared" si="3"/>
+      <c r="J43" s="2" t="n">
+        <f aca="false">$A43*2+J$1</f>
         <v>99</v>
       </c>
-      <c r="K43" s="1">
-        <f t="shared" si="3"/>
+      <c r="K43" s="2" t="n">
+        <f aca="false">$A43*2+K$1</f>
         <v>100</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="3"/>
+      <c r="L43" s="2" t="n">
+        <f aca="false">$A43*2+L$1</f>
         <v>101</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="2"/>
+      <c r="M43" s="2" t="n">
+        <f aca="false">$A43*2+M$1</f>
         <v>102</v>
       </c>
-      <c r="N43" s="1">
-        <f t="shared" si="0"/>
+      <c r="N43" s="2" t="n">
+        <f aca="false">$A43*2+N$1</f>
         <v>103</v>
       </c>
-      <c r="O43" s="1">
-        <f t="shared" si="0"/>
+      <c r="O43" s="2" t="n">
+        <f aca="false">$A43*2+O$1</f>
         <v>104</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="0"/>
+      <c r="P43" s="2" t="n">
+        <f aca="false">$A43*2+P$1</f>
         <v>105</v>
       </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q43" s="2" t="n">
+        <f aca="false">$A43*2+Q$1</f>
         <v>106</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="0"/>
+      <c r="R43" s="2" t="n">
+        <f aca="false">$A43*2+R$1</f>
         <v>107</v>
       </c>
-      <c r="S43" s="1">
-        <f t="shared" si="0"/>
+      <c r="S43" s="2" t="n">
+        <f aca="false">$A43*2+S$1</f>
         <v>108</v>
       </c>
-      <c r="T43" s="1">
-        <f t="shared" si="0"/>
+      <c r="T43" s="2" t="n">
+        <f aca="false">$A43*2+T$1</f>
         <v>109</v>
       </c>
-      <c r="U43" s="1">
-        <f t="shared" si="0"/>
+      <c r="U43" s="2" t="n">
+        <f aca="false">$A43*2+U$1</f>
         <v>110</v>
       </c>
-      <c r="V43" s="1">
-        <f t="shared" si="0"/>
+      <c r="V43" s="2" t="n">
+        <f aca="false">$A43*2+V$1</f>
         <v>111</v>
       </c>
       <c r="W43" s="5"/>
@@ -2617,92 +2647,92 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="3"/>
+      <c r="B44" s="2" t="n">
+        <f aca="false">$A44*2+B$1</f>
         <v>93</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="3"/>
+      <c r="C44" s="2" t="n">
+        <f aca="false">$A44*2+C$1</f>
         <v>94</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="3"/>
+      <c r="D44" s="2" t="n">
+        <f aca="false">$A44*2+D$1</f>
         <v>95</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="3"/>
+      <c r="E44" s="2" t="n">
+        <f aca="false">$A44*2+E$1</f>
         <v>96</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="3"/>
+      <c r="F44" s="2" t="n">
+        <f aca="false">$A44*2+F$1</f>
         <v>97</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="3"/>
+      <c r="G44" s="2" t="n">
+        <f aca="false">$A44*2+G$1</f>
         <v>98</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="3"/>
+      <c r="H44" s="2" t="n">
+        <f aca="false">$A44*2+H$1</f>
         <v>99</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="3"/>
+      <c r="I44" s="2" t="n">
+        <f aca="false">$A44*2+I$1</f>
         <v>100</v>
       </c>
-      <c r="J44" s="1">
-        <f t="shared" si="3"/>
+      <c r="J44" s="2" t="n">
+        <f aca="false">$A44*2+J$1</f>
         <v>101</v>
       </c>
-      <c r="K44" s="1">
-        <f t="shared" si="3"/>
+      <c r="K44" s="2" t="n">
+        <f aca="false">$A44*2+K$1</f>
         <v>102</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="3"/>
+      <c r="L44" s="2" t="n">
+        <f aca="false">$A44*2+L$1</f>
         <v>103</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="2"/>
+      <c r="M44" s="2" t="n">
+        <f aca="false">$A44*2+M$1</f>
         <v>104</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="0"/>
+      <c r="N44" s="2" t="n">
+        <f aca="false">$A44*2+N$1</f>
         <v>105</v>
       </c>
-      <c r="O44" s="1">
-        <f t="shared" si="0"/>
+      <c r="O44" s="2" t="n">
+        <f aca="false">$A44*2+O$1</f>
         <v>106</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="0"/>
+      <c r="P44" s="2" t="n">
+        <f aca="false">$A44*2+P$1</f>
         <v>107</v>
       </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="0"/>
+      <c r="Q44" s="2" t="n">
+        <f aca="false">$A44*2+Q$1</f>
         <v>108</v>
       </c>
-      <c r="R44" s="1">
-        <f t="shared" si="0"/>
+      <c r="R44" s="2" t="n">
+        <f aca="false">$A44*2+R$1</f>
         <v>109</v>
       </c>
-      <c r="S44" s="1">
-        <f t="shared" si="0"/>
+      <c r="S44" s="2" t="n">
+        <f aca="false">$A44*2+S$1</f>
         <v>110</v>
       </c>
-      <c r="T44" s="1">
-        <f t="shared" si="0"/>
+      <c r="T44" s="2" t="n">
+        <f aca="false">$A44*2+T$1</f>
         <v>111</v>
       </c>
-      <c r="U44" s="1">
-        <f t="shared" si="0"/>
+      <c r="U44" s="2" t="n">
+        <f aca="false">$A44*2+U$1</f>
         <v>112</v>
       </c>
-      <c r="V44" s="1">
-        <f t="shared" si="0"/>
+      <c r="V44" s="2" t="n">
+        <f aca="false">$A44*2+V$1</f>
         <v>113</v>
       </c>
       <c r="W44" s="5"/>
@@ -2723,7 +2753,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -2742,7 +2772,7 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -2761,7 +2791,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
@@ -2782,117 +2812,126 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V44 W28:AM44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="38" width="5" style="1" customWidth="1"/>
-    <col min="39" max="51" width="5.85546875" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="2" style="2" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="39" style="2" width="5.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="52" style="2" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
@@ -2911,11 +2950,11 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -2934,11 +2973,11 @@
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -2957,11 +2996,11 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -2980,11 +3019,11 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -3003,11 +3042,11 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -3026,11 +3065,11 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
@@ -3049,11 +3088,11 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -3072,11 +3111,11 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -3095,11 +3134,11 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -3118,11 +3157,11 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -3141,11 +3180,11 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -3164,11 +3203,11 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3205,11 +3244,11 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3246,11 +3285,11 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3287,11 +3326,11 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3328,11 +3367,11 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -3369,11 +3408,11 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3410,11 +3449,11 @@
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -3451,11 +3490,11 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -3483,11 +3522,11 @@
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -3515,11 +3554,11 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -3538,11 +3577,11 @@
       <c r="AL23" s="5"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -3561,11 +3600,11 @@
       <c r="AL24" s="5"/>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -3584,11 +3623,11 @@
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -3607,11 +3646,11 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -3630,14 +3669,14 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="1">
-        <f t="shared" ref="V28:AK54" si="0">$A28*2+V$1</f>
+      <c r="B28" s="8"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="2" t="n">
+        <f aca="false">$A28*2+V$1</f>
         <v>81</v>
       </c>
       <c r="W28" s="5"/>
@@ -3658,22 +3697,22 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="1">
-        <f t="shared" ref="T29:AI55" si="1">$A29*2+T$1</f>
+      <c r="B29" s="8"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="2" t="n">
+        <f aca="false">$A29*2+T$1</f>
         <v>81</v>
       </c>
-      <c r="U29" s="1">
-        <f t="shared" si="1"/>
+      <c r="U29" s="2" t="n">
+        <f aca="false">$A29*2+U$1</f>
         <v>82</v>
       </c>
-      <c r="V29" s="1">
-        <f t="shared" si="1"/>
+      <c r="V29" s="2" t="n">
+        <f aca="false">$A29*2+V$1</f>
         <v>83</v>
       </c>
       <c r="W29" s="5"/>
@@ -3694,30 +3733,30 @@
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="1">
-        <f t="shared" ref="R30:AG56" si="2">$A30*2+R$1</f>
+      <c r="B30" s="8"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="2" t="n">
+        <f aca="false">$A30*2+R$1</f>
         <v>81</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" si="2"/>
+      <c r="S30" s="2" t="n">
+        <f aca="false">$A30*2+S$1</f>
         <v>82</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" si="2"/>
+      <c r="T30" s="2" t="n">
+        <f aca="false">$A30*2+T$1</f>
         <v>83</v>
       </c>
-      <c r="U30" s="1">
-        <f t="shared" si="2"/>
+      <c r="U30" s="2" t="n">
+        <f aca="false">$A30*2+U$1</f>
         <v>84</v>
       </c>
-      <c r="V30" s="1">
-        <f t="shared" si="2"/>
+      <c r="V30" s="2" t="n">
+        <f aca="false">$A30*2+V$1</f>
         <v>85</v>
       </c>
       <c r="W30" s="5"/>
@@ -3738,39 +3777,39 @@
       <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="E31" s="6"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="1">
-        <f t="shared" ref="P31:AE57" si="3">$A31*2+P$1</f>
+      <c r="B31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="2" t="n">
+        <f aca="false">$A31*2+P$1</f>
         <v>81</v>
       </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q31" s="2" t="n">
+        <f aca="false">$A31*2+Q$1</f>
         <v>82</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="3"/>
+      <c r="R31" s="2" t="n">
+        <f aca="false">$A31*2+R$1</f>
         <v>83</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" si="3"/>
+      <c r="S31" s="2" t="n">
+        <f aca="false">$A31*2+S$1</f>
         <v>84</v>
       </c>
-      <c r="T31" s="1">
-        <f t="shared" si="3"/>
+      <c r="T31" s="2" t="n">
+        <f aca="false">$A31*2+T$1</f>
         <v>85</v>
       </c>
-      <c r="U31" s="1">
-        <f t="shared" si="3"/>
+      <c r="U31" s="2" t="n">
+        <f aca="false">$A31*2+U$1</f>
         <v>86</v>
       </c>
-      <c r="V31" s="1">
-        <f t="shared" si="3"/>
+      <c r="V31" s="2" t="n">
+        <f aca="false">$A31*2+V$1</f>
         <v>87</v>
       </c>
       <c r="W31" s="5"/>
@@ -3791,47 +3830,47 @@
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="1">
-        <f t="shared" ref="N32:AC58" si="4">$A32*2+N$1</f>
+      <c r="B32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="2" t="n">
+        <f aca="false">$A32*2+N$1</f>
         <v>81</v>
       </c>
-      <c r="O32" s="1">
-        <f t="shared" si="4"/>
+      <c r="O32" s="2" t="n">
+        <f aca="false">$A32*2+O$1</f>
         <v>82</v>
       </c>
-      <c r="P32" s="1">
-        <f t="shared" si="4"/>
+      <c r="P32" s="2" t="n">
+        <f aca="false">$A32*2+P$1</f>
         <v>83</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q32" s="2" t="n">
+        <f aca="false">$A32*2+Q$1</f>
         <v>84</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="4"/>
+      <c r="R32" s="2" t="n">
+        <f aca="false">$A32*2+R$1</f>
         <v>85</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" si="4"/>
+      <c r="S32" s="2" t="n">
+        <f aca="false">$A32*2+S$1</f>
         <v>86</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" si="4"/>
+      <c r="T32" s="2" t="n">
+        <f aca="false">$A32*2+T$1</f>
         <v>87</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" si="4"/>
+      <c r="U32" s="2" t="n">
+        <f aca="false">$A32*2+U$1</f>
         <v>88</v>
       </c>
-      <c r="V32" s="1">
-        <f t="shared" si="4"/>
+      <c r="V32" s="2" t="n">
+        <f aca="false">$A32*2+V$1</f>
         <v>89</v>
       </c>
       <c r="W32" s="5"/>
@@ -3852,55 +3891,55 @@
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="6"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="1">
-        <f t="shared" ref="L33:AA59" si="5">$A33*2+L$1</f>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2" t="n">
+        <f aca="false">$A33*2+L$1</f>
         <v>81</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
+      <c r="M33" s="2" t="n">
+        <f aca="false">$A33*2+M$1</f>
         <v>82</v>
       </c>
-      <c r="N33" s="1">
-        <f t="shared" si="4"/>
+      <c r="N33" s="2" t="n">
+        <f aca="false">$A33*2+N$1</f>
         <v>83</v>
       </c>
-      <c r="O33" s="1">
-        <f t="shared" si="4"/>
+      <c r="O33" s="2" t="n">
+        <f aca="false">$A33*2+O$1</f>
         <v>84</v>
       </c>
-      <c r="P33" s="1">
-        <f t="shared" si="4"/>
+      <c r="P33" s="2" t="n">
+        <f aca="false">$A33*2+P$1</f>
         <v>85</v>
       </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q33" s="2" t="n">
+        <f aca="false">$A33*2+Q$1</f>
         <v>86</v>
       </c>
-      <c r="R33" s="1">
-        <f t="shared" si="4"/>
+      <c r="R33" s="2" t="n">
+        <f aca="false">$A33*2+R$1</f>
         <v>87</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" si="4"/>
+      <c r="S33" s="2" t="n">
+        <f aca="false">$A33*2+S$1</f>
         <v>88</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" si="4"/>
+      <c r="T33" s="2" t="n">
+        <f aca="false">$A33*2+T$1</f>
         <v>89</v>
       </c>
-      <c r="U33" s="1">
-        <f t="shared" si="4"/>
+      <c r="U33" s="2" t="n">
+        <f aca="false">$A33*2+U$1</f>
         <v>90</v>
       </c>
-      <c r="V33" s="1">
-        <f t="shared" si="4"/>
+      <c r="V33" s="2" t="n">
+        <f aca="false">$A33*2+V$1</f>
         <v>91</v>
       </c>
       <c r="W33" s="5"/>
@@ -3921,62 +3960,62 @@
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="1">
-        <f t="shared" ref="J34:Y60" si="6">$A34*2+J$1</f>
+      <c r="B34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="2" t="n">
+        <f aca="false">$A34*2+J$1</f>
         <v>81</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="6"/>
+      <c r="K34" s="2" t="n">
+        <f aca="false">$A34*2+K$1</f>
         <v>82</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" si="6"/>
+      <c r="L34" s="2" t="n">
+        <f aca="false">$A34*2+L$1</f>
         <v>83</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" si="6"/>
+      <c r="M34" s="2" t="n">
+        <f aca="false">$A34*2+M$1</f>
         <v>84</v>
       </c>
-      <c r="N34" s="1">
-        <f t="shared" si="4"/>
+      <c r="N34" s="2" t="n">
+        <f aca="false">$A34*2+N$1</f>
         <v>85</v>
       </c>
-      <c r="O34" s="1">
-        <f t="shared" si="4"/>
+      <c r="O34" s="2" t="n">
+        <f aca="false">$A34*2+O$1</f>
         <v>86</v>
       </c>
-      <c r="P34" s="1">
-        <f t="shared" si="4"/>
+      <c r="P34" s="2" t="n">
+        <f aca="false">$A34*2+P$1</f>
         <v>87</v>
       </c>
-      <c r="Q34" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q34" s="2" t="n">
+        <f aca="false">$A34*2+Q$1</f>
         <v>88</v>
       </c>
-      <c r="R34" s="1">
-        <f t="shared" si="4"/>
+      <c r="R34" s="2" t="n">
+        <f aca="false">$A34*2+R$1</f>
         <v>89</v>
       </c>
-      <c r="S34" s="1">
-        <f t="shared" si="4"/>
+      <c r="S34" s="2" t="n">
+        <f aca="false">$A34*2+S$1</f>
         <v>90</v>
       </c>
-      <c r="T34" s="1">
-        <f t="shared" si="4"/>
+      <c r="T34" s="2" t="n">
+        <f aca="false">$A34*2+T$1</f>
         <v>91</v>
       </c>
-      <c r="U34" s="1">
-        <f t="shared" si="4"/>
+      <c r="U34" s="2" t="n">
+        <f aca="false">$A34*2+U$1</f>
         <v>92</v>
       </c>
-      <c r="V34" s="1">
-        <f t="shared" si="4"/>
+      <c r="V34" s="2" t="n">
+        <f aca="false">$A34*2+V$1</f>
         <v>93</v>
       </c>
       <c r="W34" s="5"/>
@@ -3997,70 +4036,70 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:W61" si="7">$A35*2+H$1</f>
+      <c r="B35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="2" t="n">
+        <f aca="false">$A35*2+H$1</f>
         <v>81</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="7"/>
+      <c r="I35" s="2" t="n">
+        <f aca="false">$A35*2+I$1</f>
         <v>82</v>
       </c>
-      <c r="J35" s="1">
-        <f t="shared" si="7"/>
+      <c r="J35" s="2" t="n">
+        <f aca="false">$A35*2+J$1</f>
         <v>83</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="7"/>
+      <c r="K35" s="2" t="n">
+        <f aca="false">$A35*2+K$1</f>
         <v>84</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="7"/>
+      <c r="L35" s="2" t="n">
+        <f aca="false">$A35*2+L$1</f>
         <v>85</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="7"/>
+      <c r="M35" s="2" t="n">
+        <f aca="false">$A35*2+M$1</f>
         <v>86</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" si="4"/>
+      <c r="N35" s="2" t="n">
+        <f aca="false">$A35*2+N$1</f>
         <v>87</v>
       </c>
-      <c r="O35" s="1">
-        <f t="shared" si="4"/>
+      <c r="O35" s="2" t="n">
+        <f aca="false">$A35*2+O$1</f>
         <v>88</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" si="4"/>
+      <c r="P35" s="2" t="n">
+        <f aca="false">$A35*2+P$1</f>
         <v>89</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q35" s="2" t="n">
+        <f aca="false">$A35*2+Q$1</f>
         <v>90</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" si="4"/>
+      <c r="R35" s="2" t="n">
+        <f aca="false">$A35*2+R$1</f>
         <v>91</v>
       </c>
-      <c r="S35" s="1">
-        <f t="shared" si="4"/>
+      <c r="S35" s="2" t="n">
+        <f aca="false">$A35*2+S$1</f>
         <v>92</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" si="4"/>
+      <c r="T35" s="2" t="n">
+        <f aca="false">$A35*2+T$1</f>
         <v>93</v>
       </c>
-      <c r="U35" s="1">
-        <f t="shared" si="4"/>
+      <c r="U35" s="2" t="n">
+        <f aca="false">$A35*2+U$1</f>
         <v>94</v>
       </c>
-      <c r="V35" s="1">
-        <f t="shared" si="4"/>
+      <c r="V35" s="2" t="n">
+        <f aca="false">$A35*2+V$1</f>
         <v>95</v>
       </c>
       <c r="W35" s="5"/>
@@ -4081,79 +4120,79 @@
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1">
-        <f t="shared" ref="F36:U62" si="8">$A36*2+F$1</f>
+      <c r="B36" s="8"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2" t="n">
+        <f aca="false">$A36*2+F$1</f>
         <v>81</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="8"/>
+      <c r="G36" s="2" t="n">
+        <f aca="false">$A36*2+G$1</f>
         <v>82</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="8"/>
+      <c r="H36" s="2" t="n">
+        <f aca="false">$A36*2+H$1</f>
         <v>83</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="8"/>
+      <c r="I36" s="2" t="n">
+        <f aca="false">$A36*2+I$1</f>
         <v>84</v>
       </c>
-      <c r="J36" s="1">
-        <f t="shared" si="8"/>
+      <c r="J36" s="2" t="n">
+        <f aca="false">$A36*2+J$1</f>
         <v>85</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="8"/>
+      <c r="K36" s="2" t="n">
+        <f aca="false">$A36*2+K$1</f>
         <v>86</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="8"/>
+      <c r="L36" s="2" t="n">
+        <f aca="false">$A36*2+L$1</f>
         <v>87</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="8"/>
+      <c r="M36" s="2" t="n">
+        <f aca="false">$A36*2+M$1</f>
         <v>88</v>
       </c>
-      <c r="N36" s="1">
-        <f t="shared" si="4"/>
+      <c r="N36" s="2" t="n">
+        <f aca="false">$A36*2+N$1</f>
         <v>89</v>
       </c>
-      <c r="O36" s="1">
-        <f t="shared" si="4"/>
+      <c r="O36" s="2" t="n">
+        <f aca="false">$A36*2+O$1</f>
         <v>90</v>
       </c>
-      <c r="P36" s="1">
-        <f t="shared" si="4"/>
+      <c r="P36" s="2" t="n">
+        <f aca="false">$A36*2+P$1</f>
         <v>91</v>
       </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q36" s="2" t="n">
+        <f aca="false">$A36*2+Q$1</f>
         <v>92</v>
       </c>
-      <c r="R36" s="1">
-        <f t="shared" si="4"/>
+      <c r="R36" s="2" t="n">
+        <f aca="false">$A36*2+R$1</f>
         <v>93</v>
       </c>
-      <c r="S36" s="1">
-        <f t="shared" si="4"/>
+      <c r="S36" s="2" t="n">
+        <f aca="false">$A36*2+S$1</f>
         <v>94</v>
       </c>
-      <c r="T36" s="1">
-        <f t="shared" si="4"/>
+      <c r="T36" s="2" t="n">
+        <f aca="false">$A36*2+T$1</f>
         <v>95</v>
       </c>
-      <c r="U36" s="1">
-        <f t="shared" si="4"/>
+      <c r="U36" s="2" t="n">
+        <f aca="false">$A36*2+U$1</f>
         <v>96</v>
       </c>
-      <c r="V36" s="1">
-        <f t="shared" si="4"/>
+      <c r="V36" s="2" t="n">
+        <f aca="false">$A36*2+V$1</f>
         <v>97</v>
       </c>
       <c r="W36" s="5"/>
@@ -4174,86 +4213,86 @@
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1">
-        <f t="shared" ref="D37:S63" si="9">$A37*2+D$1</f>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2" t="n">
+        <f aca="false">$A37*2+D$1</f>
         <v>81</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" si="9"/>
+      <c r="E37" s="2" t="n">
+        <f aca="false">$A37*2+E$1</f>
         <v>82</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="9"/>
+      <c r="F37" s="2" t="n">
+        <f aca="false">$A37*2+F$1</f>
         <v>83</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="9"/>
+      <c r="G37" s="2" t="n">
+        <f aca="false">$A37*2+G$1</f>
         <v>84</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="9"/>
+      <c r="H37" s="2" t="n">
+        <f aca="false">$A37*2+H$1</f>
         <v>85</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="9"/>
+      <c r="I37" s="2" t="n">
+        <f aca="false">$A37*2+I$1</f>
         <v>86</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="9"/>
+      <c r="J37" s="2" t="n">
+        <f aca="false">$A37*2+J$1</f>
         <v>87</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="9"/>
+      <c r="K37" s="2" t="n">
+        <f aca="false">$A37*2+K$1</f>
         <v>88</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="9"/>
+      <c r="L37" s="2" t="n">
+        <f aca="false">$A37*2+L$1</f>
         <v>89</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="9"/>
+      <c r="M37" s="2" t="n">
+        <f aca="false">$A37*2+M$1</f>
         <v>90</v>
       </c>
-      <c r="N37" s="1">
-        <f t="shared" si="4"/>
+      <c r="N37" s="2" t="n">
+        <f aca="false">$A37*2+N$1</f>
         <v>91</v>
       </c>
-      <c r="O37" s="1">
-        <f t="shared" si="4"/>
+      <c r="O37" s="2" t="n">
+        <f aca="false">$A37*2+O$1</f>
         <v>92</v>
       </c>
-      <c r="P37" s="1">
-        <f t="shared" si="4"/>
+      <c r="P37" s="2" t="n">
+        <f aca="false">$A37*2+P$1</f>
         <v>93</v>
       </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q37" s="2" t="n">
+        <f aca="false">$A37*2+Q$1</f>
         <v>94</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" si="4"/>
+      <c r="R37" s="2" t="n">
+        <f aca="false">$A37*2+R$1</f>
         <v>95</v>
       </c>
-      <c r="S37" s="1">
-        <f t="shared" si="4"/>
+      <c r="S37" s="2" t="n">
+        <f aca="false">$A37*2+S$1</f>
         <v>96</v>
       </c>
-      <c r="T37" s="1">
-        <f t="shared" si="4"/>
+      <c r="T37" s="2" t="n">
+        <f aca="false">$A37*2+T$1</f>
         <v>97</v>
       </c>
-      <c r="U37" s="1">
-        <f t="shared" si="4"/>
+      <c r="U37" s="2" t="n">
+        <f aca="false">$A37*2+U$1</f>
         <v>98</v>
       </c>
-      <c r="V37" s="1">
-        <f t="shared" si="4"/>
+      <c r="V37" s="2" t="n">
+        <f aca="false">$A37*2+V$1</f>
         <v>99</v>
       </c>
       <c r="W37" s="5"/>
@@ -4274,92 +4313,92 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" ref="B38:Q64" si="10">$A38*2+B$1</f>
+      <c r="B38" s="2" t="n">
+        <f aca="false">$A38*2+B$1</f>
         <v>81</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="10"/>
+      <c r="C38" s="2" t="n">
+        <f aca="false">$A38*2+C$1</f>
         <v>82</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="10"/>
+      <c r="D38" s="2" t="n">
+        <f aca="false">$A38*2+D$1</f>
         <v>83</v>
       </c>
-      <c r="E38" s="1">
-        <f t="shared" si="10"/>
+      <c r="E38" s="2" t="n">
+        <f aca="false">$A38*2+E$1</f>
         <v>84</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="10"/>
+      <c r="F38" s="2" t="n">
+        <f aca="false">$A38*2+F$1</f>
         <v>85</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="10"/>
+      <c r="G38" s="2" t="n">
+        <f aca="false">$A38*2+G$1</f>
         <v>86</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="10"/>
+      <c r="H38" s="2" t="n">
+        <f aca="false">$A38*2+H$1</f>
         <v>87</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="10"/>
+      <c r="I38" s="2" t="n">
+        <f aca="false">$A38*2+I$1</f>
         <v>88</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="10"/>
+      <c r="J38" s="2" t="n">
+        <f aca="false">$A38*2+J$1</f>
         <v>89</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="10"/>
+      <c r="K38" s="2" t="n">
+        <f aca="false">$A38*2+K$1</f>
         <v>90</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="10"/>
+      <c r="L38" s="2" t="n">
+        <f aca="false">$A38*2+L$1</f>
         <v>91</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" si="9"/>
+      <c r="M38" s="2" t="n">
+        <f aca="false">$A38*2+M$1</f>
         <v>92</v>
       </c>
-      <c r="N38" s="1">
-        <f t="shared" si="4"/>
+      <c r="N38" s="2" t="n">
+        <f aca="false">$A38*2+N$1</f>
         <v>93</v>
       </c>
-      <c r="O38" s="1">
-        <f t="shared" si="4"/>
+      <c r="O38" s="2" t="n">
+        <f aca="false">$A38*2+O$1</f>
         <v>94</v>
       </c>
-      <c r="P38" s="1">
-        <f t="shared" si="4"/>
+      <c r="P38" s="2" t="n">
+        <f aca="false">$A38*2+P$1</f>
         <v>95</v>
       </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q38" s="2" t="n">
+        <f aca="false">$A38*2+Q$1</f>
         <v>96</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" si="4"/>
+      <c r="R38" s="2" t="n">
+        <f aca="false">$A38*2+R$1</f>
         <v>97</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" si="4"/>
+      <c r="S38" s="2" t="n">
+        <f aca="false">$A38*2+S$1</f>
         <v>98</v>
       </c>
-      <c r="T38" s="1">
-        <f t="shared" si="4"/>
+      <c r="T38" s="2" t="n">
+        <f aca="false">$A38*2+T$1</f>
         <v>99</v>
       </c>
-      <c r="U38" s="1">
-        <f t="shared" si="4"/>
+      <c r="U38" s="2" t="n">
+        <f aca="false">$A38*2+U$1</f>
         <v>100</v>
       </c>
-      <c r="V38" s="1">
-        <f t="shared" si="4"/>
+      <c r="V38" s="2" t="n">
+        <f aca="false">$A38*2+V$1</f>
         <v>101</v>
       </c>
       <c r="W38" s="5"/>
@@ -4380,92 +4419,92 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" si="10"/>
+      <c r="B39" s="2" t="n">
+        <f aca="false">$A39*2+B$1</f>
         <v>83</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="10"/>
+      <c r="C39" s="2" t="n">
+        <f aca="false">$A39*2+C$1</f>
         <v>84</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="10"/>
+      <c r="D39" s="2" t="n">
+        <f aca="false">$A39*2+D$1</f>
         <v>85</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="10"/>
+      <c r="E39" s="2" t="n">
+        <f aca="false">$A39*2+E$1</f>
         <v>86</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="10"/>
+      <c r="F39" s="2" t="n">
+        <f aca="false">$A39*2+F$1</f>
         <v>87</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="10"/>
+      <c r="G39" s="2" t="n">
+        <f aca="false">$A39*2+G$1</f>
         <v>88</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="10"/>
+      <c r="H39" s="2" t="n">
+        <f aca="false">$A39*2+H$1</f>
         <v>89</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="10"/>
+      <c r="I39" s="2" t="n">
+        <f aca="false">$A39*2+I$1</f>
         <v>90</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="10"/>
+      <c r="J39" s="2" t="n">
+        <f aca="false">$A39*2+J$1</f>
         <v>91</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="10"/>
+      <c r="K39" s="2" t="n">
+        <f aca="false">$A39*2+K$1</f>
         <v>92</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="10"/>
+      <c r="L39" s="2" t="n">
+        <f aca="false">$A39*2+L$1</f>
         <v>93</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="9"/>
+      <c r="M39" s="2" t="n">
+        <f aca="false">$A39*2+M$1</f>
         <v>94</v>
       </c>
-      <c r="N39" s="1">
-        <f t="shared" si="4"/>
+      <c r="N39" s="2" t="n">
+        <f aca="false">$A39*2+N$1</f>
         <v>95</v>
       </c>
-      <c r="O39" s="1">
-        <f t="shared" si="4"/>
+      <c r="O39" s="2" t="n">
+        <f aca="false">$A39*2+O$1</f>
         <v>96</v>
       </c>
-      <c r="P39" s="1">
-        <f t="shared" si="4"/>
+      <c r="P39" s="2" t="n">
+        <f aca="false">$A39*2+P$1</f>
         <v>97</v>
       </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q39" s="2" t="n">
+        <f aca="false">$A39*2+Q$1</f>
         <v>98</v>
       </c>
-      <c r="R39" s="1">
-        <f t="shared" si="4"/>
+      <c r="R39" s="2" t="n">
+        <f aca="false">$A39*2+R$1</f>
         <v>99</v>
       </c>
-      <c r="S39" s="1">
-        <f t="shared" si="4"/>
+      <c r="S39" s="2" t="n">
+        <f aca="false">$A39*2+S$1</f>
         <v>100</v>
       </c>
-      <c r="T39" s="1">
-        <f t="shared" si="4"/>
+      <c r="T39" s="2" t="n">
+        <f aca="false">$A39*2+T$1</f>
         <v>101</v>
       </c>
-      <c r="U39" s="1">
-        <f t="shared" si="4"/>
+      <c r="U39" s="2" t="n">
+        <f aca="false">$A39*2+U$1</f>
         <v>102</v>
       </c>
-      <c r="V39" s="1">
-        <f t="shared" si="4"/>
+      <c r="V39" s="2" t="n">
+        <f aca="false">$A39*2+V$1</f>
         <v>103</v>
       </c>
       <c r="W39" s="5"/>
@@ -4486,92 +4525,92 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" si="10"/>
+      <c r="B40" s="2" t="n">
+        <f aca="false">$A40*2+B$1</f>
         <v>85</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="10"/>
+      <c r="C40" s="2" t="n">
+        <f aca="false">$A40*2+C$1</f>
         <v>86</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="10"/>
+      <c r="D40" s="2" t="n">
+        <f aca="false">$A40*2+D$1</f>
         <v>87</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" si="10"/>
+      <c r="E40" s="2" t="n">
+        <f aca="false">$A40*2+E$1</f>
         <v>88</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="10"/>
+      <c r="F40" s="2" t="n">
+        <f aca="false">$A40*2+F$1</f>
         <v>89</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="10"/>
+      <c r="G40" s="2" t="n">
+        <f aca="false">$A40*2+G$1</f>
         <v>90</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="10"/>
+      <c r="H40" s="2" t="n">
+        <f aca="false">$A40*2+H$1</f>
         <v>91</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="10"/>
+      <c r="I40" s="2" t="n">
+        <f aca="false">$A40*2+I$1</f>
         <v>92</v>
       </c>
-      <c r="J40" s="1">
-        <f t="shared" si="10"/>
+      <c r="J40" s="2" t="n">
+        <f aca="false">$A40*2+J$1</f>
         <v>93</v>
       </c>
-      <c r="K40" s="1">
-        <f t="shared" si="10"/>
+      <c r="K40" s="2" t="n">
+        <f aca="false">$A40*2+K$1</f>
         <v>94</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" si="10"/>
+      <c r="L40" s="2" t="n">
+        <f aca="false">$A40*2+L$1</f>
         <v>95</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="9"/>
+      <c r="M40" s="2" t="n">
+        <f aca="false">$A40*2+M$1</f>
         <v>96</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" si="4"/>
+      <c r="N40" s="2" t="n">
+        <f aca="false">$A40*2+N$1</f>
         <v>97</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" si="4"/>
+      <c r="O40" s="2" t="n">
+        <f aca="false">$A40*2+O$1</f>
         <v>98</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="4"/>
+      <c r="P40" s="2" t="n">
+        <f aca="false">$A40*2+P$1</f>
         <v>99</v>
       </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q40" s="2" t="n">
+        <f aca="false">$A40*2+Q$1</f>
         <v>100</v>
       </c>
-      <c r="R40" s="1">
-        <f t="shared" si="4"/>
+      <c r="R40" s="2" t="n">
+        <f aca="false">$A40*2+R$1</f>
         <v>101</v>
       </c>
-      <c r="S40" s="1">
-        <f t="shared" si="4"/>
+      <c r="S40" s="2" t="n">
+        <f aca="false">$A40*2+S$1</f>
         <v>102</v>
       </c>
-      <c r="T40" s="1">
-        <f t="shared" si="4"/>
+      <c r="T40" s="2" t="n">
+        <f aca="false">$A40*2+T$1</f>
         <v>103</v>
       </c>
-      <c r="U40" s="1">
-        <f t="shared" si="4"/>
+      <c r="U40" s="2" t="n">
+        <f aca="false">$A40*2+U$1</f>
         <v>104</v>
       </c>
-      <c r="V40" s="1">
-        <f t="shared" si="4"/>
+      <c r="V40" s="2" t="n">
+        <f aca="false">$A40*2+V$1</f>
         <v>105</v>
       </c>
       <c r="W40" s="5"/>
@@ -4592,92 +4631,92 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" si="10"/>
+      <c r="B41" s="2" t="n">
+        <f aca="false">$A41*2+B$1</f>
         <v>87</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="10"/>
+      <c r="C41" s="2" t="n">
+        <f aca="false">$A41*2+C$1</f>
         <v>88</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="10"/>
+      <c r="D41" s="2" t="n">
+        <f aca="false">$A41*2+D$1</f>
         <v>89</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" si="10"/>
+      <c r="E41" s="2" t="n">
+        <f aca="false">$A41*2+E$1</f>
         <v>90</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="10"/>
+      <c r="F41" s="2" t="n">
+        <f aca="false">$A41*2+F$1</f>
         <v>91</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="10"/>
+      <c r="G41" s="2" t="n">
+        <f aca="false">$A41*2+G$1</f>
         <v>92</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="10"/>
+      <c r="H41" s="2" t="n">
+        <f aca="false">$A41*2+H$1</f>
         <v>93</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="10"/>
+      <c r="I41" s="2" t="n">
+        <f aca="false">$A41*2+I$1</f>
         <v>94</v>
       </c>
-      <c r="J41" s="1">
-        <f t="shared" si="10"/>
+      <c r="J41" s="2" t="n">
+        <f aca="false">$A41*2+J$1</f>
         <v>95</v>
       </c>
-      <c r="K41" s="1">
-        <f t="shared" si="10"/>
+      <c r="K41" s="2" t="n">
+        <f aca="false">$A41*2+K$1</f>
         <v>96</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="10"/>
+      <c r="L41" s="2" t="n">
+        <f aca="false">$A41*2+L$1</f>
         <v>97</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="9"/>
+      <c r="M41" s="2" t="n">
+        <f aca="false">$A41*2+M$1</f>
         <v>98</v>
       </c>
-      <c r="N41" s="1">
-        <f t="shared" si="4"/>
+      <c r="N41" s="2" t="n">
+        <f aca="false">$A41*2+N$1</f>
         <v>99</v>
       </c>
-      <c r="O41" s="1">
-        <f t="shared" si="4"/>
+      <c r="O41" s="2" t="n">
+        <f aca="false">$A41*2+O$1</f>
         <v>100</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" si="4"/>
+      <c r="P41" s="2" t="n">
+        <f aca="false">$A41*2+P$1</f>
         <v>101</v>
       </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q41" s="2" t="n">
+        <f aca="false">$A41*2+Q$1</f>
         <v>102</v>
       </c>
-      <c r="R41" s="1">
-        <f t="shared" si="4"/>
+      <c r="R41" s="2" t="n">
+        <f aca="false">$A41*2+R$1</f>
         <v>103</v>
       </c>
-      <c r="S41" s="1">
-        <f t="shared" si="4"/>
+      <c r="S41" s="2" t="n">
+        <f aca="false">$A41*2+S$1</f>
         <v>104</v>
       </c>
-      <c r="T41" s="1">
-        <f t="shared" si="4"/>
+      <c r="T41" s="2" t="n">
+        <f aca="false">$A41*2+T$1</f>
         <v>105</v>
       </c>
-      <c r="U41" s="1">
-        <f t="shared" si="4"/>
+      <c r="U41" s="2" t="n">
+        <f aca="false">$A41*2+U$1</f>
         <v>106</v>
       </c>
-      <c r="V41" s="1">
-        <f t="shared" si="4"/>
+      <c r="V41" s="2" t="n">
+        <f aca="false">$A41*2+V$1</f>
         <v>107</v>
       </c>
       <c r="W41" s="5"/>
@@ -4698,92 +4737,92 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="10"/>
+      <c r="B42" s="2" t="n">
+        <f aca="false">$A42*2+B$1</f>
         <v>89</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="10"/>
+      <c r="C42" s="2" t="n">
+        <f aca="false">$A42*2+C$1</f>
         <v>90</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="10"/>
+      <c r="D42" s="2" t="n">
+        <f aca="false">$A42*2+D$1</f>
         <v>91</v>
       </c>
-      <c r="E42" s="1">
-        <f t="shared" si="10"/>
+      <c r="E42" s="2" t="n">
+        <f aca="false">$A42*2+E$1</f>
         <v>92</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="10"/>
+      <c r="F42" s="2" t="n">
+        <f aca="false">$A42*2+F$1</f>
         <v>93</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="10"/>
+      <c r="G42" s="2" t="n">
+        <f aca="false">$A42*2+G$1</f>
         <v>94</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="10"/>
+      <c r="H42" s="2" t="n">
+        <f aca="false">$A42*2+H$1</f>
         <v>95</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="10"/>
+      <c r="I42" s="2" t="n">
+        <f aca="false">$A42*2+I$1</f>
         <v>96</v>
       </c>
-      <c r="J42" s="1">
-        <f t="shared" si="10"/>
+      <c r="J42" s="2" t="n">
+        <f aca="false">$A42*2+J$1</f>
         <v>97</v>
       </c>
-      <c r="K42" s="1">
-        <f t="shared" si="10"/>
+      <c r="K42" s="2" t="n">
+        <f aca="false">$A42*2+K$1</f>
         <v>98</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" si="10"/>
+      <c r="L42" s="2" t="n">
+        <f aca="false">$A42*2+L$1</f>
         <v>99</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" si="9"/>
+      <c r="M42" s="2" t="n">
+        <f aca="false">$A42*2+M$1</f>
         <v>100</v>
       </c>
-      <c r="N42" s="1">
-        <f t="shared" si="4"/>
+      <c r="N42" s="2" t="n">
+        <f aca="false">$A42*2+N$1</f>
         <v>101</v>
       </c>
-      <c r="O42" s="1">
-        <f t="shared" si="4"/>
+      <c r="O42" s="2" t="n">
+        <f aca="false">$A42*2+O$1</f>
         <v>102</v>
       </c>
-      <c r="P42" s="1">
-        <f t="shared" si="4"/>
+      <c r="P42" s="2" t="n">
+        <f aca="false">$A42*2+P$1</f>
         <v>103</v>
       </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q42" s="2" t="n">
+        <f aca="false">$A42*2+Q$1</f>
         <v>104</v>
       </c>
-      <c r="R42" s="1">
-        <f t="shared" si="4"/>
+      <c r="R42" s="2" t="n">
+        <f aca="false">$A42*2+R$1</f>
         <v>105</v>
       </c>
-      <c r="S42" s="1">
-        <f t="shared" si="4"/>
+      <c r="S42" s="2" t="n">
+        <f aca="false">$A42*2+S$1</f>
         <v>106</v>
       </c>
-      <c r="T42" s="1">
-        <f t="shared" si="4"/>
+      <c r="T42" s="2" t="n">
+        <f aca="false">$A42*2+T$1</f>
         <v>107</v>
       </c>
-      <c r="U42" s="1">
-        <f t="shared" si="4"/>
+      <c r="U42" s="2" t="n">
+        <f aca="false">$A42*2+U$1</f>
         <v>108</v>
       </c>
-      <c r="V42" s="1">
-        <f t="shared" si="4"/>
+      <c r="V42" s="2" t="n">
+        <f aca="false">$A42*2+V$1</f>
         <v>109</v>
       </c>
       <c r="W42" s="5"/>
@@ -4804,92 +4843,92 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <f t="shared" si="10"/>
+      <c r="B43" s="2" t="n">
+        <f aca="false">$A43*2+B$1</f>
         <v>91</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" si="10"/>
+      <c r="C43" s="2" t="n">
+        <f aca="false">$A43*2+C$1</f>
         <v>92</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="10"/>
+      <c r="D43" s="2" t="n">
+        <f aca="false">$A43*2+D$1</f>
         <v>93</v>
       </c>
-      <c r="E43" s="1">
-        <f t="shared" si="10"/>
+      <c r="E43" s="2" t="n">
+        <f aca="false">$A43*2+E$1</f>
         <v>94</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="10"/>
+      <c r="F43" s="2" t="n">
+        <f aca="false">$A43*2+F$1</f>
         <v>95</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="10"/>
+      <c r="G43" s="2" t="n">
+        <f aca="false">$A43*2+G$1</f>
         <v>96</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="10"/>
+      <c r="H43" s="2" t="n">
+        <f aca="false">$A43*2+H$1</f>
         <v>97</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="10"/>
+      <c r="I43" s="2" t="n">
+        <f aca="false">$A43*2+I$1</f>
         <v>98</v>
       </c>
-      <c r="J43" s="1">
-        <f t="shared" si="10"/>
+      <c r="J43" s="2" t="n">
+        <f aca="false">$A43*2+J$1</f>
         <v>99</v>
       </c>
-      <c r="K43" s="1">
-        <f t="shared" si="10"/>
+      <c r="K43" s="2" t="n">
+        <f aca="false">$A43*2+K$1</f>
         <v>100</v>
       </c>
-      <c r="L43" s="1">
-        <f t="shared" si="10"/>
+      <c r="L43" s="2" t="n">
+        <f aca="false">$A43*2+L$1</f>
         <v>101</v>
       </c>
-      <c r="M43" s="1">
-        <f t="shared" si="9"/>
+      <c r="M43" s="2" t="n">
+        <f aca="false">$A43*2+M$1</f>
         <v>102</v>
       </c>
-      <c r="N43" s="1">
-        <f t="shared" si="4"/>
+      <c r="N43" s="2" t="n">
+        <f aca="false">$A43*2+N$1</f>
         <v>103</v>
       </c>
-      <c r="O43" s="1">
-        <f t="shared" si="4"/>
+      <c r="O43" s="2" t="n">
+        <f aca="false">$A43*2+O$1</f>
         <v>104</v>
       </c>
-      <c r="P43" s="1">
-        <f t="shared" si="4"/>
+      <c r="P43" s="2" t="n">
+        <f aca="false">$A43*2+P$1</f>
         <v>105</v>
       </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q43" s="2" t="n">
+        <f aca="false">$A43*2+Q$1</f>
         <v>106</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="4"/>
+      <c r="R43" s="2" t="n">
+        <f aca="false">$A43*2+R$1</f>
         <v>107</v>
       </c>
-      <c r="S43" s="1">
-        <f t="shared" si="4"/>
+      <c r="S43" s="2" t="n">
+        <f aca="false">$A43*2+S$1</f>
         <v>108</v>
       </c>
-      <c r="T43" s="1">
-        <f t="shared" si="4"/>
+      <c r="T43" s="2" t="n">
+        <f aca="false">$A43*2+T$1</f>
         <v>109</v>
       </c>
-      <c r="U43" s="1">
-        <f t="shared" si="4"/>
+      <c r="U43" s="2" t="n">
+        <f aca="false">$A43*2+U$1</f>
         <v>110</v>
       </c>
-      <c r="V43" s="1">
-        <f t="shared" si="4"/>
+      <c r="V43" s="2" t="n">
+        <f aca="false">$A43*2+V$1</f>
         <v>111</v>
       </c>
       <c r="W43" s="5"/>
@@ -4910,92 +4949,92 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="10"/>
+      <c r="B44" s="2" t="n">
+        <f aca="false">$A44*2+B$1</f>
         <v>93</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" si="10"/>
+      <c r="C44" s="2" t="n">
+        <f aca="false">$A44*2+C$1</f>
         <v>94</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="10"/>
+      <c r="D44" s="2" t="n">
+        <f aca="false">$A44*2+D$1</f>
         <v>95</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="10"/>
+      <c r="E44" s="2" t="n">
+        <f aca="false">$A44*2+E$1</f>
         <v>96</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="10"/>
+      <c r="F44" s="2" t="n">
+        <f aca="false">$A44*2+F$1</f>
         <v>97</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="10"/>
+      <c r="G44" s="2" t="n">
+        <f aca="false">$A44*2+G$1</f>
         <v>98</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="10"/>
+      <c r="H44" s="2" t="n">
+        <f aca="false">$A44*2+H$1</f>
         <v>99</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="10"/>
+      <c r="I44" s="2" t="n">
+        <f aca="false">$A44*2+I$1</f>
         <v>100</v>
       </c>
-      <c r="J44" s="1">
-        <f t="shared" si="10"/>
+      <c r="J44" s="2" t="n">
+        <f aca="false">$A44*2+J$1</f>
         <v>101</v>
       </c>
-      <c r="K44" s="1">
-        <f t="shared" si="10"/>
+      <c r="K44" s="2" t="n">
+        <f aca="false">$A44*2+K$1</f>
         <v>102</v>
       </c>
-      <c r="L44" s="1">
-        <f t="shared" si="10"/>
+      <c r="L44" s="2" t="n">
+        <f aca="false">$A44*2+L$1</f>
         <v>103</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" si="9"/>
+      <c r="M44" s="2" t="n">
+        <f aca="false">$A44*2+M$1</f>
         <v>104</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="4"/>
+      <c r="N44" s="2" t="n">
+        <f aca="false">$A44*2+N$1</f>
         <v>105</v>
       </c>
-      <c r="O44" s="1">
-        <f t="shared" si="4"/>
+      <c r="O44" s="2" t="n">
+        <f aca="false">$A44*2+O$1</f>
         <v>106</v>
       </c>
-      <c r="P44" s="1">
-        <f t="shared" si="4"/>
+      <c r="P44" s="2" t="n">
+        <f aca="false">$A44*2+P$1</f>
         <v>107</v>
       </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="4"/>
+      <c r="Q44" s="2" t="n">
+        <f aca="false">$A44*2+Q$1</f>
         <v>108</v>
       </c>
-      <c r="R44" s="1">
-        <f t="shared" si="4"/>
+      <c r="R44" s="2" t="n">
+        <f aca="false">$A44*2+R$1</f>
         <v>109</v>
       </c>
-      <c r="S44" s="1">
-        <f t="shared" si="4"/>
+      <c r="S44" s="2" t="n">
+        <f aca="false">$A44*2+S$1</f>
         <v>110</v>
       </c>
-      <c r="T44" s="1">
-        <f t="shared" si="4"/>
+      <c r="T44" s="2" t="n">
+        <f aca="false">$A44*2+T$1</f>
         <v>111</v>
       </c>
-      <c r="U44" s="1">
-        <f t="shared" si="4"/>
+      <c r="U44" s="2" t="n">
+        <f aca="false">$A44*2+U$1</f>
         <v>112</v>
       </c>
-      <c r="V44" s="1">
-        <f t="shared" si="4"/>
+      <c r="V44" s="2" t="n">
+        <f aca="false">$A44*2+V$1</f>
         <v>113</v>
       </c>
       <c r="W44" s="5"/>
@@ -5016,7 +5055,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -5035,7 +5074,7 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -5054,7 +5093,7 @@
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
@@ -5075,10 +5114,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V44 W28:AM44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>